--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Quy tắc lấy dữ liệu</t>
+          <t>2.6.2. Quy tắc lấy dữ liệu</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
+          <t xml:space="preserve"> Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
+          <t xml:space="preserve"> B2.1 Lấy dữ liệu kỳ trước :</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B2.2 Truy vấn thông tin ngày quá hạn (NO_DAY_OVERDUE	) và check vi phạm quy tắc nghị quyết</t>
+          <t xml:space="preserve"> B2.2 Truy vấn thông tin ngày quá hạn (NO_DAY_OVERDUE	) và check vi phạm quy tắc nghị quyết</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -763,7 +763,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -947,7 +947,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -991,7 +991,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1049,7 +1049,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đánh giá tổng hợp các điều kiện trên</t>
+          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đánh giá tổng hợp các điều kiện trên</t>
+          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đánh giá tổng hợp các điều kiện trên</t>
+          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1283,7 +1283,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1363,7 +1363,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1391,7 +1391,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1421,7 +1421,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1443,7 +1443,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1469,7 +1469,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
+          <t xml:space="preserve"> Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
+          <t xml:space="preserve"> Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mô tả nghiệp vụ</t>
+          <t>3.9.3. Mô tả nghiệp vụ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1519,7 +1519,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1543,7 +1543,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sinh kỳ TSBD</t>
+          <t xml:space="preserve"> Sinh kỳ TSBD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1615,7 +1615,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1640,7 +1640,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1661,7 +1661,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1742,7 +1742,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1785,7 +1785,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1832,7 +1832,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1880,7 +1880,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1895,7 +1895,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1927,7 +1927,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2017,7 +2017,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2036,7 +2036,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2078,7 +2078,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2144,7 +2144,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2159,7 +2159,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2267,7 +2267,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2317,7 +2317,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2337,7 +2337,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2370,7 +2370,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2390,7 +2390,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2477,7 +2477,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu tài sản bảo đảm</t>
+          <t xml:space="preserve"> Lấy dữ liệu tài sản bảo đảm</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t xml:space="preserve"> Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t xml:space="preserve"> Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2550,7 +2550,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2619,7 +2619,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2645,7 +2645,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2661,7 +2661,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2726,7 +2726,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>3.16.3. Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t xml:space="preserve"> Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2777,7 +2777,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t xml:space="preserve"> Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2816,7 +2816,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2847,7 +2847,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2862,7 +2862,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2917,7 +2917,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2955,7 +2955,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3002,7 +3002,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3222,7 +3222,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3330,7 +3330,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3367,7 +3367,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3397,7 +3397,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3414,7 +3414,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3429,7 +3429,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t xml:space="preserve"> Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,11 @@
           <t>SQL Query</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Has JOIN</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2.6.2. Quy tắc lấy dữ liệu</t>
+          <t>Quy tắc lấy dữ liệu</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,14 +520,11 @@
 group_datas gds</t>
         </is>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
+          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,14 +541,11 @@
 AND ( (pe.REGISTER_DATE IS NOT NULL AND TRUNC(pe.REGISTER_DATE) &lt; TRUNC (sysdate)) OR (pe.REGISTER_DATE IS NULL AND TRUNC(pe.EVALUATION_DATE) &lt; TRUNC (sysdate)) );</t>
         </is>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B2.1 Lấy dữ liệu kỳ trước :</t>
+          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -569,29 +558,23 @@
 WHERE AND pe.FREQUENCY = 1 AND pe.FREQUENCY_UNIT = 'M' AND pe.CONTRACT_CONDITION_ID = :contractConditionId;</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> B2.2 Truy vấn thông tin ngày quá hạn (NO_DAY_OVERDUE	) và check vi phạm quy tắc nghị quyết</t>
+          <t>B2.2 Truy vấn thông tin ngày quá hạn (NO_DAY_OVERDUE	) và check vi phạm quy tắc nghị quyết</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>SELECT *  TBL_CONDITION_CREDIT_RELATION cr WHERE cr.CONDITION_ID = :contractConditionId;</t>
         </is>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -612,14 +595,11 @@
 );</t>
         </is>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,14 +618,11 @@
 TRANS_TYPE;</t>
         </is>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -664,14 +641,11 @@
 TRANS_TYPE;</t>
         </is>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -687,14 +661,11 @@
 CUSTOMER;</t>
         </is>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -710,14 +681,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -733,14 +701,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -756,14 +721,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -779,14 +741,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -802,14 +761,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -825,14 +781,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -848,14 +801,11 @@
 CUSTOMER_ID;</t>
         </is>
       </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -871,14 +821,11 @@
 CUSTOMER_ID,OUT_REFERENCE;</t>
         </is>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -894,14 +841,11 @@
 CUSTOMER_ID,OUT_REFERENCE;</t>
         </is>
       </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -917,14 +861,11 @@
 CUSTOMER_ID,OUT_REFERENCE;</t>
         </is>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -940,14 +881,11 @@
 CUSTOMER_ID,OUT_REFERENCE;</t>
         </is>
       </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -962,14 +900,11 @@
 CONTRACT_REF;</t>
         </is>
       </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -984,14 +919,11 @@
 AND PERIOD = : period;</t>
         </is>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1042,14 +974,11 @@
 ID = : contractConditionId;</t>
         </is>
       </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1089,14 +1018,11 @@
 REVENUE_CONDITION_ID = : contractConditionId;</t>
         </is>
       </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1136,14 +1062,11 @@
 REVENUE_CONDITION_ID = : contractConditionId;</t>
         </is>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1158,29 +1081,23 @@
 ( PERIOD =: period AND TYPE =: typePeriodRate )</t>
         </is>
       </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>WITH max_period AS ( SELECT MAX( PERIOD ) AS PERIOD, TYPE FROM TBL_REVENUE_PERIOD_RATE GROUP BY TYPE );</t>
         </is>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1197,29 +1114,23 @@
 TBL_REVENUE_PERIOD_RATE.TYPE =: typePeriodRate;</t>
         </is>
       </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>SELECT CONTRACT_AMT FROM TBL_BI_CONTRACT_REF_DEFINE WHERE CONTRACT_ID = :contractId;</t>
         </is>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
+          <t>Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1237,14 +1148,11 @@
 END;</t>
         </is>
       </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
+          <t>Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1259,14 +1167,11 @@
 END;</t>
         </is>
       </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đánh giá tổng hợp các điều kiện trên</t>
+          <t>Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1276,14 +1181,11 @@
 : autoEvaluationResult;</t>
         </is>
       </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1310,14 +1212,11 @@
 );</t>
         </is>
       </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1339,14 +1238,11 @@
 report_batch_id ELSE NULL END;</t>
         </is>
       </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1356,14 +1252,11 @@
 EVALUATION_RESULT= 'NOT_FOLLOW';</t>
         </is>
       </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1384,44 +1277,35 @@
 );</t>
         </is>
       </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_CROSS_SELLING WHERE CONDITION_ID = :conditionId;</t>
         </is>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>UPDATE TBL_PERIOD_EVALUATION SET AUTO_EVALUATION_RESULT = 'NOT_ENOUGH_EVALUATION_DATA' WHERE id = :id;</t>
         </is>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1436,14 +1320,11 @@
 END;</t>
         </is>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1462,44 +1343,35 @@
 AND ( FORCE_CREATE_NEXT = 1 OR CAST( EVALUATION_DATE AS DATE ) &lt; CAST( SYSDATE ) );</t>
         </is>
       </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
+          <t>Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_PERIODIC_TEST_FREQUENCY WHERE CUSTOMER_TYPE = NVL(SUBSTR(PERIODIC_TYPE, 0, INSTR(PERIODIC_TYPE, '#')-1), PERIODIC_TYPE)= CUSTOMER_TYPE;</t>
         </is>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
+          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_LOAN_PRODUCT_CONDITION WHERE CODE = LOAN_PRODUCT_CODE;</t>
         </is>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3.9.3. Mô tả nghiệp vụ</t>
+          <t>Mô tả nghiệp vụ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1512,14 +1384,11 @@
 SELECT DISTINCT COLLATERAL_ID FROM TBL_BI_COLLATERAL WHERE STATE = 'STOP_FOLLOW' );</t>
         </is>
       </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1536,14 +1405,11 @@
 AND TBL_BI_COLLATERAL.PERIOD_CONDITION = 'ENOUGH';</t>
         </is>
       </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1557,29 +1423,23 @@
 AND TBL_PERIOD_EVALUATION.GROUP_CONTRACT_CONDITION IN ( 'REVALUE_COLLATERAL', 'SECUR_PROP_INSURANCE' );</t>
         </is>
       </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>SELECT * FROM tbl_val_collateral_frequency WHERE collateral_type = TBL_BI_COLLATERAL.COLL_TYPE;</t>
         </is>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1593,29 +1453,23 @@
 AND (STATUS IS NULL OR STATUS &lt;&gt;'STOP_FOLLOW';</t>
         </is>
       </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sinh kỳ TSBD</t>
+          <t>Sinh kỳ TSBD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>UPDATE TBL_BI_COLLATERAL SET period_status = 'SUCCESS' AND state = 'NOT_CHANGE' AND UPDATE d_user = 'SYSTEM_USER' AND UPDATE _date = SYSDATE;</t>
         </is>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1633,14 +1487,11 @@
 AND CREATE_PERIOD_STATUS IN ( 'NEW', 'RENEW' );</t>
         </is>
       </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1654,14 +1505,11 @@
 AND STATUS = 'ACTIVE';</t>
         </is>
       </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1675,14 +1523,11 @@
 AND LOAN_PRODUCT_CODE = loanCondition.CODE;</t>
         </is>
       </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1694,14 +1539,11 @@
 AND UPDATED_USER = 'SYSTEM_USER';</t>
         </is>
       </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1713,14 +1555,11 @@
 AND UPDATED_USER = 'SYSTEM_USER';</t>
         </is>
       </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1735,14 +1574,11 @@
 and CREATE_PERIOD_STATUS in ('NEW', 'RENEW')</t>
         </is>
       </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1778,14 +1614,11 @@
 and DH.CREATE_PERIOD_STATUS in (‘NEW’,’RENEW’);</t>
         </is>
       </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1801,14 +1634,11 @@
 AND CONTRACT_ID = : contract_id;</t>
         </is>
       </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1825,14 +1655,11 @@
 AND CONTRACT_ID = : contract_id;</t>
         </is>
       </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1844,15 +1671,12 @@
 WHERE
 PRODUCT_TYPE = : product_type</t>
         </is>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1873,29 +1697,23 @@
 Dữ liệu được xử lý theo từng row ( lấy customer_id và co_code làm key lấy ra nhưng hợp đồng, nghị quyệt, danh mục tương ứng)</t>
         </is>
       </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1920,14 +1738,11 @@
 );</t>
         </is>
       </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1954,29 +1769,23 @@
 );</t>
         </is>
       </c>
-      <c r="C62" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_ID = :refId;</t>
         </is>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1988,15 +1797,12 @@
 WHERE
 CUSTOMER_TYPE = : custType</t>
         </is>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2010,14 +1816,11 @@
 AND loans_term_ext is not null</t>
         </is>
       </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2029,14 +1832,11 @@
 AND CO_CODE = : coCode;</t>
         </is>
       </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2056,29 +1856,23 @@
 and CREATE_PERIOD_STATUS in ('NEW', 'RENEW') GROUP BY CUSTOMER_ID, CO_CODE</t>
         </is>
       </c>
-      <c r="C67" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
-      </c>
-      <c r="C68" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2103,14 +1897,11 @@
 );</t>
         </is>
       </c>
-      <c r="C69" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2137,44 +1928,35 @@
 );</t>
         </is>
       </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = (NULL or DKNQ) and CONTRACT_ID = :refId;</t>
         </is>
-      </c>
-      <c r="C71" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = DKSP and CONTRACT_ID = :refId;</t>
         </is>
-      </c>
-      <c r="C72" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2186,15 +1968,12 @@
 WHERE
 CUSTOMER_TYPE = : custType</t>
         </is>
-      </c>
-      <c r="C73" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2206,14 +1985,11 @@
 AND CO_CODE = : coCode</t>
         </is>
       </c>
-      <c r="C74" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2260,14 +2036,11 @@
 Dữ liệu xử lý theo từng row lấy ra được ( period )</t>
         </is>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2285,14 +2058,11 @@
 1</t>
         </is>
       </c>
-      <c r="C76" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2310,14 +2080,11 @@
 1</t>
         </is>
       </c>
-      <c r="C77" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2329,15 +2096,12 @@
 WHERE
 ref_id = period.contract_id</t>
         </is>
-      </c>
-      <c r="C78" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2363,14 +2127,11 @@
 )</t>
         </is>
       </c>
-      <c r="C79" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2382,15 +2143,12 @@
 WHERE
 unit_code = period.CO_CODE;</t>
         </is>
-      </c>
-      <c r="C80" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2406,29 +2164,23 @@
 1</t>
         </is>
       </c>
-      <c r="C81" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>UPDATE TBL_PERIOD_EVALUATION Set period.report_note = : reportNote  WHERE ID= period.ID;</t>
         </is>
-      </c>
-      <c r="C82" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2450,14 +2202,11 @@
 )</t>
         </is>
       </c>
-      <c r="C83" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2470,29 +2219,23 @@
 ID = period.ID;</t>
         </is>
       </c>
-      <c r="C84" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu tài sản bảo đảm</t>
+          <t>Lấy dữ liệu tài sản bảo đảm</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_BI_COLLATERAL WHERE collateral_id = period.collateral_id;</t>
         </is>
-      </c>
-      <c r="C85" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2506,14 +2249,11 @@
 ID = period.ID</t>
         </is>
       </c>
-      <c r="C86" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2522,14 +2262,11 @@
 WHERE REF_ID IN (: contractRefs );</t>
         </is>
       </c>
-      <c r="C87" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2543,14 +2280,11 @@
 ID = period.ID</t>
         </is>
       </c>
-      <c r="C88" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2565,14 +2299,11 @@
 AND STATUS = 'ACTIVE'</t>
         </is>
       </c>
-      <c r="C89" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2586,14 +2317,11 @@
 ID = period.ID</t>
         </is>
       </c>
-      <c r="C90" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2612,14 +2340,11 @@
 1</t>
         </is>
       </c>
-      <c r="C91" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2638,14 +2363,11 @@
 1</t>
         </is>
       </c>
-      <c r="C92" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2654,29 +2376,23 @@
 WHERE REF_ID = refId;</t>
         </is>
       </c>
-      <c r="C93" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>SELECT * FROM insuranceSanctions WHERE START_DATE &gt;= monthValue AND (END_DATE is null OR (END_DATE &gt; monthValue ) ) AND INTEREST_ADJUST = interestAdjustEnum AND REPORT_DATE = reportDateType;</t>
         </is>
-      </c>
-      <c r="C94" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2699,14 +2415,11 @@
 )</t>
         </is>
       </c>
-      <c r="C95" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2718,30 +2431,24 @@
 WHERE
 unit_code = period.CO_CODE</t>
         </is>
-      </c>
-      <c r="C96" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tạo dữ liệu áp chế tài</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>UPDATE TBL_PERIOD_EVALUATION SET period.report_note = : reportNote, CHECK_PERIOD_REPORT = : checkPeriodReport ,REPORT_BATCH_ID = : reportBatchId  WHERE ID= period.ID;</t>
         </is>
-      </c>
-      <c r="C97" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3.16.3. Quy tắc xử lý dữ liệu</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2750,14 +2457,11 @@
 WHERE STATUS = 'ACTIVE' GROUP BY unit_code;</t>
         </is>
       </c>
-      <c r="C98" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2770,14 +2474,11 @@
 and (STATUS is null or STATUS &lt;&gt; 'STOP_FOLLOW');</t>
         </is>
       </c>
-      <c r="C99" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2791,14 +2492,11 @@
 and evaluation_result = 'FOLLOW';</t>
         </is>
       </c>
-      <c r="C100" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2809,14 +2507,11 @@
 and (MONTH_YEAR = (EXTRACT(YEAR FROM SYSDATE) -1 || '-12-01'))</t>
         </is>
       </c>
-      <c r="C101" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2825,44 +2520,35 @@
 AND ( MONTH_YEAR = EXTRACT(YEAR FROM SYSDATE) || '-' ||(CASE WHEN (EXTRACT(MONTH FROM SYSDATE) -2) &lt; 10 THEN '0' || TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2)  ELSE TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2) END ) || '-01'  );</t>
         </is>
       </c>
-      <c r="C102" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>SELECT SUM (MONTH_POINT) FROM TBL_KPI_REPORT WHERE CO_CODE = :p_co_code  AND EXTRACT(YEAR FROM SYSDATE) = EXTRACT(YEAR FROM to_date(MONTH_YEAR,'YYYY-MM-DD')) GROUP BY CO_CODE   ) ;</t>
         </is>
-      </c>
-      <c r="C103" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>SELECT EXTRACT(MONTH FROM SYSDATE) -2) FROM DUAL;</t>
         </is>
-      </c>
-      <c r="C104" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2910,14 +2596,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C105" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2933,29 +2616,23 @@
 AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
-      <c r="C106" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
-      </c>
-      <c r="C107" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2978,14 +2655,11 @@
 );</t>
         </is>
       </c>
-      <c r="C108" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2995,14 +2669,11 @@
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
       </c>
-      <c r="C109" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3050,14 +2721,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C110" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3105,14 +2773,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C111" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3160,14 +2825,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C112" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3215,14 +2877,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C113" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3270,14 +2929,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C114" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3323,14 +2979,11 @@
 and CD.GROUP_CONDITION_TYPE = 'ĐKSP';</t>
         </is>
       </c>
-      <c r="C115" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3345,29 +2998,23 @@
 AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
-      <c r="C116" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
-      </c>
-      <c r="C117" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3390,14 +3037,11 @@
 );</t>
         </is>
       </c>
-      <c r="C118" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3407,44 +3051,35 @@
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
       </c>
-      <c r="C119" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_ADVANCE_PAYMENT_RELEASE WHERE CREATE_PERIOD_STATUS = NULL OR CREATE_PERIOD_STATUS IN (‘NEW’,’RENEW’);</t>
         </is>
-      </c>
-      <c r="C120" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>SELECT * FROM TBL_BI_GUARANTEE_SALES WHERE CONTRACT_MD = sub_MD.CONTRACT_MD;</t>
         </is>
-      </c>
-      <c r="C121" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3459,14 +3094,11 @@
 AND CONTRACT_ID = MD.CONTRACT_REF;</t>
         </is>
       </c>
-      <c r="C122" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xử lý dữ liệu</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3479,9 +3111,6 @@
 CATEGORY = ‘ADVANCE_RELEASE_CONDITION’
 AND PRODUCT_TYPE = MD.PRODUCT_CODE</t>
         </is>
-      </c>
-      <c r="C123" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -1676,7 +1676,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1693,8 +1693,7 @@
 )
 and CPS_TSKTDK = 'N'
 and LOCKED_KEY is null
-and CREATE_PERIOD_STATUS in ('NEW', 'RENEW') GROUP BY CUSTOMER_ID, CO_CODE
-Dữ liệu được xử lý theo từng row ( lấy customer_id và co_code làm key lấy ra nhưng hợp đồng, nghị quyệt, danh mục tương ứng)</t>
+and CREATE_PERIOD_STATUS in ('NEW', 'RENEW') GROUP BY CUSTOMER_ID, CO_CODE;</t>
         </is>
       </c>
     </row>

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -1988,7 +1988,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2031,8 +2031,7 @@
 pe.STATUS is null
 or pe.STATUS not in ('STOP_FOLLOW', 'OVERDUE_1')
 )
-and pe.EVALUATION_DATE &lt; to_date(sysdate, 'DD-MM-YYYY')
-Dữ liệu xử lý theo từng row lấy ra được ( period )</t>
+and pe.EVALUATION_DATE &lt; to_date(sysdate, 'DD-MM-YYYY');</t>
         </is>
       </c>
     </row>

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WITH slipMarkData AS (
+          <t>WITHslipMarkData AS (
 SELECT 
 sm.MARK_USER mark_user,
 sm.COMPANY_ACCOUNTING co_code,
@@ -496,7 +496,7 @@
 TRUNC( sm.CREATED_DATE ) = TRUNC( SYSDATE - INTERVAL '1' DAY )
 AND sm.MARK_USER IS NOT NULL
 ),
-SELECT * FROM slipMarkNonTransRefData ),
+SELECT* FROM slipMarkNonTransRefData ),
 group_datas AS (
 SELECT 
 mark_user,
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SELECT *  TBL_CONDITION_CREDIT_RELATION cr WHERE cr.CONDITION_ID = :contractConditionId;</t>
+          <t>SELECT*  TBL_CONDITION_CREDIT_RELATION cr WHERE  cr.CONDITION_ID = :contractConditionId;</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WITH max_period AS ( SELECT MAX( PERIOD ) AS PERIOD, TYPE FROM TBL_REVENUE_PERIOD_RATE GROUP BY TYPE );</t>
+          <t>WITHmax_period AS ( SELECT  MAX( PERIOD ) AS PERIOD, TYPE FROM TBL_REVENUE_PERIOD_RATE GROUP BY TYPE );</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELECT CONTRACT_AMT FROM TBL_BI_CONTRACT_REF_DEFINE WHERE CONTRACT_ID = :contractId;</t>
+          <t>SELECTCONTRACT_AMT FROM TBL_BI_CONTRACT_REF_DEFINE WHERE  CONTRACT_ID = :contractId;</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 CASE
 WHEN evaluation_result IS NULL THEN
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 :autoEvaluationResult,
 evaluation_result =
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UPDATE tbl_revenue_condition
+          <t>UPDATEtbl_revenue_condition
 SET auto_evaluation_result =
 : autoEvaluationResult;</t>
         </is>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET AUTO_EVALUATION_RESULT = 'NOT_FOLLOW',
 EVALUATION_RESULT= 'NOT_FOLLOW',
 report_note =
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET AUTO_EVALUATION_RESULT = 'NOT_FOLLOW',
 EVALUATION_RESULT= 'NOT_FOLLOW';</t>
         </is>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_CROSS_SELLING WHERE CONDITION_ID = :conditionId;</t>
+          <t>SELECT* FROM TBL_CROSS_SELLING WHERE  CONDITION_ID = :conditionId;</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION SET AUTO_EVALUATION_RESULT = 'NOT_ENOUGH_EVALUATION_DATA' WHERE id = :id;</t>
+          <t>UPDATETBL_PERIOD_EVALUATION SET AUTO_EVALUATION_RESULT = 'NOT_ENOUGH_EVALUATION_DATA' WHERE  id = :id;</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 :autoEvaluationResult,
 evaluation_result =
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_PERIODIC_TEST_FREQUENCY WHERE CUSTOMER_TYPE = NVL(SUBSTR(PERIODIC_TYPE, 0, INSTR(PERIODIC_TYPE, '#')-1), PERIODIC_TYPE)= CUSTOMER_TYPE;</t>
+          <t>SELECT* FROM TBL_PERIODIC_TEST_FREQUENCY WHERE  CUSTOMER_TYPE = NVL(SUBSTR(PERIODIC_TYPE, 0, INSTR(PERIODIC_TYPE, '#')-1), PERIODIC_TYPE)= CUSTOMER_TYPE;</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_LOAN_PRODUCT_CONDITION WHERE CODE = LOAN_PRODUCT_CODE;</t>
+          <t>SELECT* FROM TBL_LOAN_PRODUCT_CONDITION WHERE  CODE = LOAN_PRODUCT_CODE;</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION
+          <t>UPDATETBL_PERIOD_EVALUATION
 SET STATUS = 'STOP_FOLLOW',
 REPORT_NOTE = 'Ngừng theo dõi TSBD'
 WHERE
 GROUP_CONTRACT_CONDITION IN ( 'REVALUE_COLLATERAL', 'SECUR_PROP_INSURANCE' )
-SELECT DISTINCT COLLATERAL_ID FROM TBL_BI_COLLATERAL WHERE STATE = 'STOP_FOLLOW' );</t>
+SELECTDISTINCT COLLATERAL_ID FROM TBL_BI_COLLATERAL WHERE  STATE = 'STOP_FOLLOW' );</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SELECT * FROM tbl_val_collateral_frequency WHERE collateral_type = TBL_BI_COLLATERAL.COLL_TYPE;</t>
+          <t>SELECT* FROM tbl_val_collateral_frequency WHERE  collateral_type = TBL_BI_COLLATERAL.COLL_TYPE;</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UPDATE TBL_BI_COLLATERAL SET period_status = 'SUCCESS' AND state = 'NOT_CHANGE' AND UPDATE d_user = 'SYSTEM_USER' AND UPDATE _date = SYSDATE;</t>
+          <t>UPDATETBL_BI_COLLATERAL SET period_status = 'SUCCESS' AND state = 'NOT_CHANGE' AND updated_user = 'SYSTEM_USER' AND update_date = SYSDATE;</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UPDATE STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>UPDATESTG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 SET CPS_DKSPV = 'Y'
 AND CREATE_PERIOD_STATUS = 'RENEW'
 AND UPDATED_DATE = SYSDATE
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>UPDATE STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>UPDATESTG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 SET CPS_DKSPV = 'Y'
 AND CREATE_PERIOD_STATUS = 'RENEW'
 AND UPDATED_DATE = SYSDATE
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
+          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE  CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_ID = :refId;</t>
+          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
+          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE  CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = (NULL or DKNQ) and CONTRACT_ID = :refId;</t>
+          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = (NULL or DKNQ) and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = DKSP and CONTRACT_ID = :refId;</t>
+          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = DKSP and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION Set period.report_note = : reportNote  WHERE ID= period.ID;</t>
+          <t>UPDATETBL_PERIOD_EVALUATION Set period.report_note = : reportNote  WHERE  ID= period.ID;</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_BI_COLLATERAL WHERE collateral_id = period.collateral_id;</t>
+          <t>SELECT* FROM TBL_BI_COLLATERAL WHERE  collateral_id = period.collateral_id;</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 WHERE REF_ID IN (: contractRefs );</t>
         </is>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 WHERE REF_ID = refId;</t>
         </is>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SELECT * FROM insuranceSanctions WHERE START_DATE &gt;= monthValue AND (END_DATE is null OR (END_DATE &gt; monthValue ) ) AND INTEREST_ADJUST = interestAdjustEnum AND REPORT_DATE = reportDateType;</t>
+          <t>SELECT* FROM insuranceSanctions WHERE  START_DATE &gt;= monthValue AND (END_DATE is null OR (END_DATE &gt; monthValue ) ) AND INTEREST_ADJUST = interestAdjustEnum AND REPORT_DATE = reportDateType;</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>UPDATE TBL_PERIOD_EVALUATION SET period.report_note = : reportNote, CHECK_PERIOD_REPORT = : checkPeriodReport ,REPORT_BATCH_ID = : reportBatchId  WHERE ID= period.ID;</t>
+          <t>UPDATETBL_PERIOD_EVALUATION SET period.report_note = : reportNote, CHECK_PERIOD_REPORT = : checkPeriodReport ,REPORT_BATCH_ID = : reportBatchId  WHERE  ID= period.ID;</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SELECT * FROM KSSCT.ad_unit
+          <t>SELECT* FROM KSSCT.ad_unit
 WHERE STATUS = 'ACTIVE' GROUP BY unit_code;</t>
         </is>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*)
+          <t>SELECTCOUNT(*)
 from TBL_PERIOD_EVALUATION
 where CO_CODE = :p_co_code
 and cast(EVALUATION_DATE as date) &gt;= to_date(:p_from_date, 'YYYY-MM-DD HH24:MI:SS')
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*)
+          <t>SELECTCOUNT(*)
 from TBL_PERIOD_EVALUATION
 where CO_CODE = :p_co_code
 and cast(EVALUATION_DATE as date) &gt;= to_date(:p_from_date, 'YYYY-MM-DD HH24:MI:SS')
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SELECT *
+          <t>SELECT*
 from TBL_KPI_REPORT
 where CO_CODE = :p_co_code
 and (MONTH_YEAR = (EXTRACT(YEAR FROM SYSDATE) -1 || '-12-01'))</t>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SELECT * FORM TBL_KPI_REPORT  WHERE CO_CODE = :p_co_code
+          <t>SELECT* FORM TBL_KPI_REPORT  WHERE  CO_CODE = :p_co_code
 AND ( MONTH_YEAR = EXTRACT(YEAR FROM SYSDATE) || '-' ||(CASE WHEN (EXTRACT(MONTH FROM SYSDATE) -2) &lt; 10 THEN '0' || TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2)  ELSE TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2) END ) || '-01'  );</t>
         </is>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SELECT SUM (MONTH_POINT) FROM TBL_KPI_REPORT WHERE CO_CODE = :p_co_code  AND EXTRACT(YEAR FROM SYSDATE) = EXTRACT(YEAR FROM to_date(MONTH_YEAR,'YYYY-MM-DD')) GROUP BY CO_CODE   ) ;</t>
+          <t>SELECTSUM (MONTH_POINT) FROM TBL_KPI_REPORT WHERE  CO_CODE = :p_co_code  AND EXTRACT(YEAR FROM SYSDATE) = EXTRACT(YEAR FROM to_date(MONTH_YEAR,'YYYY-MM-DD')) GROUP BY CO_CODE   ) ;</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SELECT EXTRACT(MONTH FROM SYSDATE) -2) FROM DUAL;</t>
+          <t>SELECTEXTRACT(MONTH FROM SYSDATE) -2) FROM DUAL;</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
+          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
     </row>
@@ -2635,18 +2635,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SELECT min(VALUE_DATE) min_value_date FROM (
-SELECT VALUE_DATE VALUE_DATE
+          <t>SELECTmin(VALUE_DATE) min_value_date FROM (
+SELECTVALUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_DISBURSEMENT_HISTORY DH
 WHERE DH.CONTRACT_REF = ref_id AND DH.PRODUCT_CODE = product_code
 UNION ALL
-SELECT ISSUE_DATE VALUE_DATE
+SELECTISSUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_LC_RELEASE_SALES LC
 WHERE LC.CONTRACT_REF = ref_id AND LC.PRODUCT_CODE = product_code
 UNION ALL
-SELECT PAST_SCHED_DATE VALUE_DATE
+SELECTPAST_SCHED_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_GUARANTEE_SALES GS
 WHERE GS.CONTRACT_REF = ref_id AND GS.PRODUCT_CODE = product_code
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID
+          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID
 AND CONTRACT_ID = ref_id
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
+          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
     </row>
@@ -3017,18 +3017,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SELECT min(VALUE_DATE) min_value_date FROM (
-SELECT VALUE_DATE VALUE_DATE
+          <t>SELECTmin(VALUE_DATE) min_value_date FROM (
+SELECTVALUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_DISBURSEMENT_HISTORY DH
 WHERE DH.CONTRACT_REF = ref_id AND DH.PRODUCT_CODE = product_code
 UNION ALL
-SELECT ISSUE_DATE VALUE_DATE
+SELECTISSUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_LC_RELEASE_SALES LC
 WHERE LC.CONTRACT_REF = ref_id AND LC.PRODUCT_CODE = product_code
 UNION ALL
-SELECT PAST_SCHED_DATE VALUE_DATE
+SELECTPAST_SCHED_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_GUARANTEE_SALES GS
 WHERE GS.CONTRACT_REF = ref_id AND GS.PRODUCT_CODE = product_code
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID
+          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID
 AND CONTRACT_ID = ref_id
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_ADVANCE_PAYMENT_RELEASE WHERE CREATE_PERIOD_STATUS = NULL OR CREATE_PERIOD_STATUS IN (‘NEW’,’RENEW’);</t>
+          <t>SELECT* FROM TBL_ADVANCE_PAYMENT_RELEASE WHERE  CREATE_PERIOD_STATUS = NULL OR CREATE_PERIOD_STATUS IN (‘NEW’,’RENEW’);</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SELECT * FROM TBL_BI_GUARANTEE_SALES WHERE CONTRACT_MD = sub_MD.CONTRACT_MD;</t>
+          <t>SELECT* FROM TBL_BI_GUARANTEE_SALES WHERE  CONTRACT_MD = sub_MD.CONTRACT_MD;</t>
         </is>
       </c>
     </row>

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -1999,7 +1999,7 @@
 CASE WHEN pe.group_contract_condition = 'LOAN_PRODUCT_CONDITION' THEN 'OTHER' WHEN pe.group_contract_condition = 'REVENUE' THEN rc.sanctionType ELSE cd.sanctionType END as sanctionType,
 CASE WHEN pe.group_contract_condition = 'LOAN_PRODUCT_CONDITION' THEN pe.LOAN_PRODUCT_CODE || pe.CONTRACT_ID WHEN pe.group_contract_condition = 'REVENUE'
 AND rc.origin_id is not null THEN rc.origin_id WHEN pe.group_contract_condition = 'REVENUE'
-AND rc.origin_id is null THEN rc.ID WHEN cd.origin_id is not null THEN cd.origin_id ELSE cd.ID END as conditionId,
+AND rc.origin_id is null THEN rc.ID WHEN cd.origin_id is not null THEN cd.origin_id ELSE cd.ID END as conditionId
 from
 TBL_PERIOD_EVALUATION pe
 left join TBL_LOAN_PRODUCT_CONDITION lp on lp.CODE = pe.LOAN_PRODUCT_CODE

--- a/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
+++ b/Output/SQL_Docx/JOB nghiệp vụ 2.11_SQLs.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WITHslipMarkData AS (
+          <t>WITH slipMarkData AS (
 SELECT 
 sm.MARK_USER mark_user,
 sm.COMPANY_ACCOUNTING co_code,
@@ -496,7 +496,7 @@
 TRUNC( sm.CREATED_DATE ) = TRUNC( SYSDATE - INTERVAL '1' DAY )
 AND sm.MARK_USER IS NOT NULL
 ),
-SELECT* FROM slipMarkNonTransRefData ),
+SELECT * FROM slipMarkNonTransRefData ),
 group_datas AS (
 SELECT 
 mark_user,
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SELECT*  TBL_CONDITION_CREDIT_RELATION cr WHERE  cr.CONDITION_ID = :contractConditionId;</t>
+          <t>SELECT *  TBL_CONDITION_CREDIT_RELATION cr WHERE cr.CONDITION_ID = :contractConditionId;</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WITHmax_period AS ( SELECT  MAX( PERIOD ) AS PERIOD, TYPE FROM TBL_REVENUE_PERIOD_RATE GROUP BY TYPE );</t>
+          <t>WITH max_period AS ( SELECT MAX( PERIOD ) AS PERIOD, TYPE FROM TBL_REVENUE_PERIOD_RATE GROUP BY TYPE );</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELECTCONTRACT_AMT FROM TBL_BI_CONTRACT_REF_DEFINE WHERE  CONTRACT_ID = :contractId;</t>
+          <t>SELECT CONTRACT_AMT FROM TBL_BI_CONTRACT_REF_DEFINE WHERE CONTRACT_ID = :contractId;</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 CASE
 WHEN evaluation_result IS NULL THEN
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 :autoEvaluationResult,
 evaluation_result =
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UPDATEtbl_revenue_condition
+          <t>UPDATE tbl_revenue_condition
 SET auto_evaluation_result =
 : autoEvaluationResult;</t>
         </is>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET AUTO_EVALUATION_RESULT = 'NOT_FOLLOW',
 EVALUATION_RESULT= 'NOT_FOLLOW',
 report_note =
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET AUTO_EVALUATION_RESULT = 'NOT_FOLLOW',
 EVALUATION_RESULT= 'NOT_FOLLOW';</t>
         </is>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_CROSS_SELLING WHERE  CONDITION_ID = :conditionId;</t>
+          <t>SELECT * FROM TBL_CROSS_SELLING WHERE CONDITION_ID = :conditionId;</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION SET AUTO_EVALUATION_RESULT = 'NOT_ENOUGH_EVALUATION_DATA' WHERE  id = :id;</t>
+          <t>UPDATE TBL_PERIOD_EVALUATION SET AUTO_EVALUATION_RESULT = 'NOT_ENOUGH_EVALUATION_DATA' WHERE id = :id;</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET auto_evaluation_result =
 :autoEvaluationResult,
 evaluation_result =
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_PERIODIC_TEST_FREQUENCY WHERE  CUSTOMER_TYPE = NVL(SUBSTR(PERIODIC_TYPE, 0, INSTR(PERIODIC_TYPE, '#')-1), PERIODIC_TYPE)= CUSTOMER_TYPE;</t>
+          <t>SELECT * FROM TBL_PERIODIC_TEST_FREQUENCY WHERE CUSTOMER_TYPE = NVL(SUBSTR(PERIODIC_TYPE, 0, INSTR(PERIODIC_TYPE, '#')-1), PERIODIC_TYPE)= CUSTOMER_TYPE;</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_LOAN_PRODUCT_CONDITION WHERE  CODE = LOAN_PRODUCT_CODE;</t>
+          <t>SELECT * FROM TBL_LOAN_PRODUCT_CONDITION WHERE CODE = LOAN_PRODUCT_CODE;</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION
+          <t>UPDATE TBL_PERIOD_EVALUATION
 SET STATUS = 'STOP_FOLLOW',
 REPORT_NOTE = 'Ngừng theo dõi TSBD'
 WHERE
 GROUP_CONTRACT_CONDITION IN ( 'REVALUE_COLLATERAL', 'SECUR_PROP_INSURANCE' )
-SELECTDISTINCT COLLATERAL_ID FROM TBL_BI_COLLATERAL WHERE  STATE = 'STOP_FOLLOW' );</t>
+SELECT DISTINCT COLLATERAL_ID FROM TBL_BI_COLLATERAL WHERE STATE = 'STOP_FOLLOW' );</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SELECT* FROM tbl_val_collateral_frequency WHERE  collateral_type = TBL_BI_COLLATERAL.COLL_TYPE;</t>
+          <t>SELECT * FROM tbl_val_collateral_frequency WHERE collateral_type = TBL_BI_COLLATERAL.COLL_TYPE;</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UPDATETBL_BI_COLLATERAL SET period_status = 'SUCCESS' AND state = 'NOT_CHANGE' AND updated_user = 'SYSTEM_USER' AND update_date = SYSDATE;</t>
+          <t>UPDATE TBL_BI_COLLATERAL SET period_status = 'SUCCESS' AND state = 'NOT_CHANGE' AND updated_user = 'SYSTEM_USER' AND update_date = SYSDATE;</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UPDATESTG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>UPDATE STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 SET CPS_DKSPV = 'Y'
 AND CREATE_PERIOD_STATUS = 'RENEW'
 AND UPDATED_DATE = SYSDATE
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>UPDATESTG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>UPDATE STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 SET CPS_DKSPV = 'Y'
 AND CREATE_PERIOD_STATUS = 'RENEW'
 AND UPDATED_DATE = SYSDATE
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE  CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
+          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_ID = :refId;</t>
+          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE  CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
+          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE  WHERE CUSTOMER_ID = :customerId AND CO_CODE = :coCode;</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = (NULL or DKNQ) and CONTRACT_ID = :refId;</t>
+          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = (NULL or DKNQ) and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_CONTRACT_CONDITION WHERE  GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = DKSP and CONTRACT_ID = :refId;</t>
+          <t>SELECT * FROM TBL_CONTRACT_CONDITION WHERE GROUP_CONTRACT_CONDITION = 'PERIODIC' and STATUS = 'APPROVED' and CONTRACT_CONDITION_TYPE = DKSP and CONTRACT_ID = :refId;</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION Set period.report_note = : reportNote  WHERE  ID= period.ID;</t>
+          <t>UPDATE TBL_PERIOD_EVALUATION Set period.report_note = : reportNote  WHERE ID= period.ID;</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_BI_COLLATERAL WHERE  collateral_id = period.collateral_id;</t>
+          <t>SELECT * FROM TBL_BI_COLLATERAL WHERE collateral_id = period.collateral_id;</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 WHERE REF_ID IN (: contractRefs );</t>
         </is>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SELECT* FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
+          <t>SELECT * FROM STG_SEAOPS.TBL_BI_CONTRACT_REF_DEFINE
 WHERE REF_ID = refId;</t>
         </is>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SELECT* FROM insuranceSanctions WHERE  START_DATE &gt;= monthValue AND (END_DATE is null OR (END_DATE &gt; monthValue ) ) AND INTEREST_ADJUST = interestAdjustEnum AND REPORT_DATE = reportDateType;</t>
+          <t>SELECT * FROM insuranceSanctions WHERE START_DATE &gt;= monthValue AND (END_DATE is null OR (END_DATE &gt; monthValue ) ) AND INTEREST_ADJUST = interestAdjustEnum AND REPORT_DATE = reportDateType;</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>UPDATETBL_PERIOD_EVALUATION SET period.report_note = : reportNote, CHECK_PERIOD_REPORT = : checkPeriodReport ,REPORT_BATCH_ID = : reportBatchId  WHERE  ID= period.ID;</t>
+          <t>UPDATE TBL_PERIOD_EVALUATION SET period.report_note = : reportNote, CHECK_PERIOD_REPORT = : checkPeriodReport ,REPORT_BATCH_ID = : reportBatchId  WHERE ID= period.ID;</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SELECT* FROM KSSCT.ad_unit
+          <t>SELECT * FROM KSSCT.ad_unit
 WHERE STATUS = 'ACTIVE' GROUP BY unit_code;</t>
         </is>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SELECTCOUNT(*)
+          <t>SELECT COUNT(*)
 from TBL_PERIOD_EVALUATION
 where CO_CODE = :p_co_code
 and cast(EVALUATION_DATE as date) &gt;= to_date(:p_from_date, 'YYYY-MM-DD HH24:MI:SS')
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SELECTCOUNT(*)
+          <t>SELECT COUNT(*)
 from TBL_PERIOD_EVALUATION
 where CO_CODE = :p_co_code
 and cast(EVALUATION_DATE as date) &gt;= to_date(:p_from_date, 'YYYY-MM-DD HH24:MI:SS')
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SELECT*
+          <t>SELECT *
 from TBL_KPI_REPORT
 where CO_CODE = :p_co_code
 and (MONTH_YEAR = (EXTRACT(YEAR FROM SYSDATE) -1 || '-12-01'))</t>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SELECT* FORM TBL_KPI_REPORT  WHERE  CO_CODE = :p_co_code
+          <t>SELECT * FORM TBL_KPI_REPORT  WHERE CO_CODE = :p_co_code
 AND ( MONTH_YEAR = EXTRACT(YEAR FROM SYSDATE) || '-' ||(CASE WHEN (EXTRACT(MONTH FROM SYSDATE) -2) &lt; 10 THEN '0' || TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2)  ELSE TO_CHAR(EXTRACT(MONTH FROM SYSDATE) -2) END ) || '-01'  );</t>
         </is>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SELECTSUM (MONTH_POINT) FROM TBL_KPI_REPORT WHERE  CO_CODE = :p_co_code  AND EXTRACT(YEAR FROM SYSDATE) = EXTRACT(YEAR FROM to_date(MONTH_YEAR,'YYYY-MM-DD')) GROUP BY CO_CODE   ) ;</t>
+          <t>SELECT SUM (MONTH_POINT) FROM TBL_KPI_REPORT WHERE CO_CODE = :p_co_code  AND EXTRACT(YEAR FROM SYSDATE) = EXTRACT(YEAR FROM to_date(MONTH_YEAR,'YYYY-MM-DD')) GROUP BY CO_CODE   ) ;</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SELECTEXTRACT(MONTH FROM SYSDATE) -2) FROM DUAL;</t>
+          <t>SELECT EXTRACT(MONTH FROM SYSDATE) -2) FROM DUAL;</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
+          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
     </row>
@@ -2635,18 +2635,18 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SELECTmin(VALUE_DATE) min_value_date FROM (
-SELECTVALUE_DATE VALUE_DATE
+          <t>SELECT min(VALUE_DATE) min_value_date FROM (
+SELECT VALUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_DISBURSEMENT_HISTORY DH
 WHERE DH.CONTRACT_REF = ref_id AND DH.PRODUCT_CODE = product_code
 UNION ALL
-SELECTISSUE_DATE VALUE_DATE
+SELECT ISSUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_LC_RELEASE_SALES LC
 WHERE LC.CONTRACT_REF = ref_id AND LC.PRODUCT_CODE = product_code
 UNION ALL
-SELECTPAST_SCHED_DATE VALUE_DATE
+SELECT PAST_SCHED_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_GUARANTEE_SALES GS
 WHERE GS.CONTRACT_REF = ref_id AND GS.PRODUCT_CODE = product_code
@@ -2662,7 +2662,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID
+          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID
 AND CONTRACT_ID = ref_id
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
+          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID AND CONTRACT_ID = ref_id;</t>
         </is>
       </c>
     </row>
@@ -3017,18 +3017,18 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SELECTmin(VALUE_DATE) min_value_date FROM (
-SELECTVALUE_DATE VALUE_DATE
+          <t>SELECT min(VALUE_DATE) min_value_date FROM (
+SELECT VALUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_DISBURSEMENT_HISTORY DH
 WHERE DH.CONTRACT_REF = ref_id AND DH.PRODUCT_CODE = product_code
 UNION ALL
-SELECTISSUE_DATE VALUE_DATE
+SELECT ISSUE_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_LC_RELEASE_SALES LC
 WHERE LC.CONTRACT_REF = ref_id AND LC.PRODUCT_CODE = product_code
 UNION ALL
-SELECTPAST_SCHED_DATE VALUE_DATE
+SELECT PAST_SCHED_DATE VALUE_DATE
 FROM
 STG_SEAOPS.TBL_BI_GUARANTEE_SALES GS
 WHERE GS.CONTRACT_REF = ref_id AND GS.PRODUCT_CODE = product_code
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_PERIOD_EVALUATION WHERE  CONTRACT_CONDITION_ID = condition.ID
+          <t>SELECT * FROM TBL_PERIOD_EVALUATION WHERE CONTRACT_CONDITION_ID = condition.ID
 AND CONTRACT_ID = ref_id
 AND LOAN_PRODUCT_ID = product_code;</t>
         </is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_ADVANCE_PAYMENT_RELEASE WHERE  CREATE_PERIOD_STATUS = NULL OR CREATE_PERIOD_STATUS IN (‘NEW’,’RENEW’);</t>
+          <t>SELECT * FROM TBL_ADVANCE_PAYMENT_RELEASE WHERE CREATE_PERIOD_STATUS = NULL OR CREATE_PERIOD_STATUS IN (‘NEW’,’RENEW’);</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SELECT* FROM TBL_BI_GUARANTEE_SALES WHERE  CONTRACT_MD = sub_MD.CONTRACT_MD;</t>
+          <t>SELECT * FROM TBL_BI_GUARANTEE_SALES WHERE CONTRACT_MD = sub_MD.CONTRACT_MD;</t>
         </is>
       </c>
     </row>
